--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B7617-7553-4635-BB29-332434F19AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AB062-834F-4097-A292-D070DBE8239B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,18 @@
   </si>
   <si>
     <t>NGC-3475/T1820</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2656</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
   </si>
 </sst>
 </file>
@@ -536,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -956,4 +969,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16D2DE-53C0-437E-8EE8-3AE8BDC1D30B}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AB062-834F-4097-A292-D070DBE8239B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF2F7E-E24E-43A0-954D-AAE52F02A212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2462</t>
   </si>
 </sst>
 </file>
@@ -550,7 +557,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16D2DE-53C0-437E-8EE8-3AE8BDC1D30B}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1111,4 +1118,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217496A7-6825-4249-B6D9-00F598F4F28A}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF2F7E-E24E-43A0-954D-AAE52F02A212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689051D-29AA-4B3D-967A-0C96831EA024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>NGC-3479/T2462</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2930/T3228 </t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217496A7-6825-4249-B6D9-00F598F4F28A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,4 +1267,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD1B6B7-5C2F-4211-A882-9F7FFFCE44AB}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689051D-29AA-4B3D-967A-0C96831EA024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523EFD7-06FD-452A-A1B2-4995BC22B097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-2930/T3228 </t>
+  </si>
+  <si>
+    <t>NGC-3475/T1820/NGC-3145/T2446</t>
   </si>
 </sst>
 </file>
@@ -564,7 +568,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD1B6B7-5C2F-4211-A882-9F7FFFCE44AB}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
@@ -1399,4 +1403,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA2EB8C-798B-4EEE-AA97-FAAE76195647}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523EFD7-06FD-452A-A1B2-4995BC22B097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A83632-DEE3-4F1B-AC12-CFD697806036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>NGC-3475/T1820/NGC-3145/T2446</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2056</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA2EB8C-798B-4EEE-AA97-FAAE76195647}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,4 +1552,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E88025-D6E7-4103-BB76-82C7A4EE8F12}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A83632-DEE3-4F1B-AC12-CFD697806036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF9B18D-4F32-41BB-AEF1-7703784DC1A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>NGC-3103/T2056</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2488</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1292,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E88025-D6E7-4103-BB76-82C7A4EE8F12}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1693,4 +1700,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65F207E-789F-4386-8BB6-73A40BE93F38}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF9B18D-4F32-41BB-AEF1-7703784DC1A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B253F-F836-4E18-94A4-E0BDB1E73A60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Croatia" sheetId="21" r:id="rId9"/>
+    <sheet name="Greece" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -158,6 +159,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3190</t>
   </si>
 </sst>
 </file>
@@ -719,6 +726,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA2B0F9-9316-4394-9F62-9DE372E84108}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D19"/>
@@ -1706,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65F207E-789F-4386-8BB6-73A40BE93F38}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B253F-F836-4E18-94A4-E0BDB1E73A60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5E003-EA17-4A9B-91FB-9B6B460AD9BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Croatia" sheetId="21" r:id="rId9"/>
     <sheet name="Greece" sheetId="22" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="23" r:id="rId11"/>
+    <sheet name="Austria" sheetId="24" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="25" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -165,6 +168,27 @@
   </si>
   <si>
     <t>NGC-4119/T3190</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2202</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2309</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2790</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -730,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA2B0F9-9316-4394-9F62-9DE372E84108}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -845,6 +869,417 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD475356-7CFD-4F52-AD9C-1C2266C79FBB}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1046A0B-0F78-46A3-85BC-A2AC4A7A25A1}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA5B878-0BA8-4038-9438-C5A6A0780501}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5E003-EA17-4A9B-91FB-9B6B460AD9BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC52C76-0AA6-4853-BB69-162AC83B0506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="23" r:id="rId11"/>
     <sheet name="Austria" sheetId="24" r:id="rId12"/>
     <sheet name="Denmark" sheetId="25" r:id="rId13"/>
+    <sheet name="Russia" sheetId="27" r:id="rId14"/>
+    <sheet name="Finland" sheetId="28" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="29" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -189,6 +192,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2056</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2949</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2998</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -886,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD475356-7CFD-4F52-AD9C-1C2266C79FBB}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1293,6 +1314,404 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C959B1-DD38-4146-937D-F1FD2D6A11FC}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AE1026-2F7C-427F-AB2A-C70D4AADB7E0}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D1C0A-1DB8-4904-915E-5968CF2DC814}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D19"/>

--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC52C76-0AA6-4853-BB69-162AC83B0506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F066FE-1A6D-43B1-8EA3-CEB8EEB098CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="27" r:id="rId14"/>
     <sheet name="Finland" sheetId="28" r:id="rId15"/>
     <sheet name="Hungary" sheetId="29" r:id="rId16"/>
+    <sheet name="Norway" sheetId="30" r:id="rId17"/>
+    <sheet name="Poland" sheetId="31" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -210,6 +212,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3078</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3113</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D1C0A-1DB8-4904-915E-5968CF2DC814}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1639,6 +1653,275 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7CC25A-971E-4631-97C8-9BAE6D242630}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0FB73B-A935-47A9-9F59-7F6524E3E4BF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F066FE-1A6D-43B1-8EA3-CEB8EEB098CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC24182-68D7-474B-A6AD-86CCA22E3708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="29" r:id="rId16"/>
     <sheet name="Norway" sheetId="30" r:id="rId17"/>
     <sheet name="Poland" sheetId="31" r:id="rId18"/>
+    <sheet name="UK" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -224,6 +225,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3349</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7CC25A-971E-4631-97C8-9BAE6D242630}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1995,6 +2002,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2820B6-D574-4CDE-BBD3-1F628924862E}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D19"/>
